--- a/SSD_TestPlan_V1.xlsx
+++ b/SSD_TestPlan_V1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SSD_Test_Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="System_env" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -225,16 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用lspci指令抓取lnkCap及lnkSta
-     $ lspci -s xx:xx.x -vvv |grep -iE "lnksta|lnkcap"
-2. 测试步骤合并在DC/AC/OSreboot/Hotplug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Case Tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Case Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,11 +700,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复用(AC/DC/REBOOT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fio;dd;md5sum;nvme-cli;smartctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case Tool（command）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用(AC/DC/REBOOT/Hotplug)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用lspci指令抓取lnkCap及lnkSta
+     $ lspci -s xx:xx.x -vvv |grep -iE "lnksta|lnkcap"
+2. 测试步骤合并在DC/AC/OSreboot/Hotplug测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,11 +848,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,6 +869,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>675502</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="675502" y="723899"/>
+          <a:ext cx="6437118" cy="5953125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1136,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1167,23 +1216,23 @@
         <v>48</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1198,19 +1247,19 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>123</v>
+      <c r="F2" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1223,19 +1272,19 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>124</v>
+      <c r="F3" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1243,24 +1292,24 @@
         <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1268,24 +1317,24 @@
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>139</v>
+      <c r="F5" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1295,24 +1344,24 @@
         <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>130</v>
+      <c r="F6" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1320,74 +1369,74 @@
         <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>131</v>
+      <c r="F7" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>132</v>
+      <c r="F8" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>133</v>
+      <c r="F9" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1395,24 +1444,24 @@
         <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>134</v>
+      <c r="F10" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1422,24 +1471,24 @@
         <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>132</v>
+      <c r="F11" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
@@ -1447,24 +1496,24 @@
         <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>133</v>
+      <c r="F12" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1472,24 +1521,24 @@
         <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>133</v>
+      <c r="F13" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
@@ -1497,24 +1546,24 @@
         <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>133</v>
+      <c r="F14" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
@@ -1522,24 +1571,24 @@
         <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>133</v>
+      <c r="F15" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1547,24 +1596,24 @@
         <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>135</v>
+      <c r="F16" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
@@ -1572,24 +1621,24 @@
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>129</v>
+      <c r="F17" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1597,24 +1646,24 @@
         <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>128</v>
+      <c r="F18" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1624,24 +1673,24 @@
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>137</v>
+      <c r="F19" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1649,24 +1698,24 @@
         <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>136</v>
+      <c r="F20" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
@@ -1674,24 +1723,24 @@
         <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>138</v>
+      <c r="F21" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
@@ -1699,24 +1748,24 @@
         <v>44</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>126</v>
+      <c r="F22" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1724,24 +1773,24 @@
         <v>45</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>141</v>
+      <c r="F23" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
@@ -1749,19 +1798,19 @@
         <v>46</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>127</v>
+      <c r="F24" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -1782,11 +1831,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>